--- a/sofaplayer/Ligue_1/Paris Saint-Germain_stats.xlsx
+++ b/sofaplayer/Ligue_1/Paris Saint-Germain_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>818244</v>
       </c>
       <c r="E2" t="n">
-        <v>7.4692307692308</v>
+        <v>7.5285714285714</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9759</v>
+        <v>4.5848</v>
       </c>
       <c r="L2" t="n">
-        <v>87.71428571428601</v>
+        <v>86</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>30.434782608696</v>
+        <v>29.62962962963</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -1101,58 +1101,58 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.8470116</v>
+        <v>3.4479736</v>
       </c>
       <c r="AB2" t="n">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>432</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>84.54011741683</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>511</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>369</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>249</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>78.571428571429</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>23.684210526316</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>412</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>84.599589322382</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>487</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>62</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>236</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>76.92307692307701</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>22.58064516129</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>4</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS2" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>60</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>50</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BC2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD2" t="n">
-        <v>51.219512195122</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BE2" t="n">
         <v>2</v>
       </c>
       <c r="BF2" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG2" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="BH2" t="n">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>97.09999999999999</v>
+        <v>105.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BT2" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW2" t="n">
         <v>3</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CA2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CC2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CD2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CS2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CT2" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="CU2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CV2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW2" t="n">
         <v>1</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="DA2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="DG2" t="n">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>889259</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0705882352941</v>
+        <v>7.0777777777778</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>867</v>
+        <v>927</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -1409,13 +1409,13 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3512</v>
+        <v>3.4458</v>
       </c>
       <c r="L3" t="n">
-        <v>216.75</v>
+        <v>231.75</v>
       </c>
       <c r="M3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
         <v>16</v>
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>10.810810810811</v>
+        <v>10.526315789474</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,52 +1457,52 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.37128227</v>
+        <v>3.96521927</v>
       </c>
       <c r="AB3" t="n">
-        <v>742</v>
+        <v>777</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AF3" t="n">
-        <v>86</v>
+        <v>85.74144486692001</v>
       </c>
       <c r="AG3" t="n">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="AH3" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AI3" t="n">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="AJ3" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
-        <v>52.631578947368</v>
+        <v>52.380952380952</v>
       </c>
       <c r="AM3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN3" t="n">
-        <v>22.58064516129</v>
+        <v>24.242424242424</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
         <v>7</v>
@@ -1511,13 +1511,13 @@
         <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
         <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1529,37 +1529,37 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>50</v>
+        <v>51.020408163265</v>
       </c>
       <c r="BA3" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BB3" t="n">
-        <v>46.825396825397</v>
+        <v>46.969696969697</v>
       </c>
       <c r="BC3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BD3" t="n">
-        <v>47.413793103448</v>
+        <v>47.933884297521</v>
       </c>
       <c r="BE3" t="n">
         <v>4</v>
       </c>
       <c r="BF3" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG3" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="BH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ3" t="n">
         <v>2</v>
@@ -1577,22 +1577,22 @@
         <v>2</v>
       </c>
       <c r="BO3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>120.2</v>
+        <v>127.4</v>
       </c>
       <c r="BR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS3" t="n">
         <v>7</v>
       </c>
       <c r="BT3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="BZ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CA3" t="n">
         <v>9</v>
@@ -1619,10 +1619,10 @@
         <v>17</v>
       </c>
       <c r="CC3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CD3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="CK3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1664,37 +1664,37 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>49</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>33</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>70</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>21</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>48</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>31</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>67</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>19</v>
       </c>
       <c r="DA3" t="n">
         <v>7</v>
       </c>
       <c r="DB3" t="n">
-        <v>46.666666666667</v>
+        <v>43.75</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="DG3" t="n">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1154605</v>
       </c>
       <c r="E4" t="n">
-        <v>7.075</v>
+        <v>7.0076923076923</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1765,22 +1765,22 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4628</v>
+        <v>4.3397</v>
       </c>
       <c r="L4" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.538461538462</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,34 +1813,34 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.1313278</v>
+        <v>1.2703918</v>
       </c>
       <c r="AB4" t="n">
-        <v>596</v>
+        <v>655</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="AF4" t="n">
-        <v>84.81675392670201</v>
+        <v>85.167464114833</v>
       </c>
       <c r="AG4" t="n">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="AH4" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="AK4" t="n">
         <v>11</v>
@@ -1849,31 +1849,31 @@
         <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.857142857143</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AS4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1885,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
-        <v>37.209302325581</v>
+        <v>39.130434782609</v>
       </c>
       <c r="BA4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BB4" t="n">
-        <v>45.217391304348</v>
+        <v>45.238095238095</v>
       </c>
       <c r="BC4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BD4" t="n">
-        <v>46.428571428571</v>
+        <v>46.341463414634</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="BH4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -1933,28 +1933,28 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>84.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="BR4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS4" t="n">
         <v>5</v>
       </c>
       <c r="BT4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>2</v>
       </c>
       <c r="BZ4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CC4" t="n">
         <v>15</v>
@@ -1999,7 +1999,7 @@
         <v>6</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CS4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CT4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CU4" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="CV4" t="n">
         <v>3</v>
@@ -2050,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="DB4" t="n">
-        <v>57.894736842105</v>
+        <v>55</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="DG4" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>996952</v>
       </c>
       <c r="E5" t="n">
-        <v>7.3055555555556</v>
+        <v>7.3105263157895</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>1054</v>
+        <v>1084</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -2121,22 +2121,22 @@
         <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.7825</v>
+        <v>7.1946</v>
       </c>
       <c r="L5" t="n">
-        <v>150.57142857143</v>
+        <v>154.85714285714</v>
       </c>
       <c r="M5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P5" t="n">
-        <v>16.279069767442</v>
+        <v>15.555555555556</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,34 +2169,34 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.8562338</v>
+        <v>3.0617498</v>
       </c>
       <c r="AB5" t="n">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AF5" t="n">
-        <v>84.821428571429</v>
+        <v>84.81561822125801</v>
       </c>
       <c r="AG5" t="n">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="AH5" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AJ5" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -2205,16 +2205,16 @@
         <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.384615384615</v>
+        <v>21.428571428571</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>14</v>
@@ -2226,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>42.105263157895</v>
+        <v>44.067796610169</v>
       </c>
       <c r="BA5" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BB5" t="n">
-        <v>43.076923076923</v>
+        <v>44.029850746269</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD5" t="n">
-        <v>42.857142857143</v>
+        <v>43.90243902439</v>
       </c>
       <c r="BE5" t="n">
         <v>5</v>
@@ -2265,7 +2265,7 @@
         <v>45.454545454545</v>
       </c>
       <c r="BG5" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BH5" t="n">
         <v>13</v>
@@ -2289,22 +2289,22 @@
         <v>3</v>
       </c>
       <c r="BO5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>131.5</v>
+        <v>138.9</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
         <v>8</v>
       </c>
       <c r="BT5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CA5" t="n">
         <v>15</v>
       </c>
       <c r="CB5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC5" t="n">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CS5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CU5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CV5" t="n">
         <v>6</v>
@@ -2403,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="DA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB5" t="n">
-        <v>47.368421052632</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="DG5" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>934510</v>
       </c>
       <c r="E7" t="n">
-        <v>6.5</v>
+        <v>6.5142857142857</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,22 +2833,22 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6897</v>
+        <v>6.293</v>
       </c>
       <c r="L7" t="n">
-        <v>225.5</v>
+        <v>229.5</v>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P7" t="n">
-        <v>10.526315789474</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -2881,34 +2881,34 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.46359207</v>
+        <v>0.49579317</v>
       </c>
       <c r="AB7" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AF7" t="n">
-        <v>81.614349775785</v>
+        <v>81.578947368421</v>
       </c>
       <c r="AG7" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH7" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI7" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="n">
         <v>2</v>
@@ -2959,10 +2959,10 @@
         <v>45</v>
       </c>
       <c r="BA7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BB7" t="n">
-        <v>42.307692307692</v>
+        <v>42.452830188679</v>
       </c>
       <c r="BC7" t="n">
         <v>31</v>
@@ -2971,16 +2971,16 @@
         <v>42.465753424658</v>
       </c>
       <c r="BE7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF7" t="n">
-        <v>41.935483870968</v>
+        <v>42.424242424242</v>
       </c>
       <c r="BG7" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BH7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI7" t="n">
         <v>13</v>
@@ -3001,28 +3001,28 @@
         <v>2</v>
       </c>
       <c r="BO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>130</v>
+        <v>136.8</v>
       </c>
       <c r="BR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS7" t="n">
         <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BW7" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CA7" t="n">
         <v>6</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK7" t="n">
         <v>2</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS7" t="n">
         <v>20</v>
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="CU7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CV7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="DG7" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1926085</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.00197229</v>
+        <v>0.20770429</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3603,22 +3603,22 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>95.833333333333</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>11</v>
       </c>
-      <c r="AF9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>100</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB9" t="n">
         <v>100</v>
       </c>
       <c r="BC9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>100</v>
@@ -3687,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>7</v>
+        <v>13.6</v>
       </c>
       <c r="BR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU9" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="DG9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>902029</v>
       </c>
       <c r="E10" t="n">
-        <v>7.705</v>
+        <v>7.6952380952381</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1559</v>
+        <v>1649</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -3902,7 +3902,7 @@
         <v>0.8018</v>
       </c>
       <c r="L10" t="n">
-        <v>1559</v>
+        <v>1649</v>
       </c>
       <c r="M10" t="n">
         <v>27</v>
@@ -3947,10 +3947,10 @@
         <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.2056722</v>
+        <v>3.2590309</v>
       </c>
       <c r="AB10" t="n">
-        <v>2254</v>
+        <v>2366</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -3959,28 +3959,28 @@
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>1938</v>
+        <v>2034</v>
       </c>
       <c r="AF10" t="n">
-        <v>93.940862821134</v>
+        <v>93.90581717451499</v>
       </c>
       <c r="AG10" t="n">
-        <v>2063</v>
+        <v>2166</v>
       </c>
       <c r="AH10" t="n">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="AI10" t="n">
-        <v>1173</v>
+        <v>1228</v>
       </c>
       <c r="AJ10" t="n">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="AK10" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL10" t="n">
-        <v>76.21951219512199</v>
+        <v>75.690607734807</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -3989,22 +3989,22 @@
         <v>31.578947368421</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AS10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -4025,16 +4025,16 @@
         <v>69.230769230769</v>
       </c>
       <c r="BA10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB10" t="n">
-        <v>57.333333333333</v>
+        <v>58.227848101266</v>
       </c>
       <c r="BC10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BD10" t="n">
-        <v>57.746478873239</v>
+        <v>58.666666666667</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
@@ -4043,13 +4043,13 @@
         <v>50</v>
       </c>
       <c r="BG10" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="BH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4067,22 +4067,22 @@
         <v>8</v>
       </c>
       <c r="BO10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>154.1</v>
+        <v>161.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
         <v>8</v>
       </c>
       <c r="BT10" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>7</v>
       </c>
       <c r="CC10" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="CD10" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4130,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>19</v>
       </c>
       <c r="CU10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CV10" t="n">
         <v>2</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="DA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB10" t="n">
-        <v>68.75</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="DG10" t="n">
-        <v>1273</v>
+        <v>1335</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4237,16 @@
         <v>1190933</v>
       </c>
       <c r="E11" t="n">
-        <v>7.3583333333333</v>
+        <v>7.2769230769231</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>906</v>
+        <v>977</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -4255,22 +4255,22 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8798</v>
+        <v>2.3816</v>
       </c>
       <c r="L11" t="n">
-        <v>181.2</v>
+        <v>195.4</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>26.315789473684</v>
+        <v>23.809523809524</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.3302215</v>
+        <v>1.3832057</v>
       </c>
       <c r="AB11" t="n">
-        <v>837</v>
+        <v>899</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4315,28 +4315,28 @@
         <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="AF11" t="n">
-        <v>92.706872370266</v>
+        <v>91.93121693121699</v>
       </c>
       <c r="AG11" t="n">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="AH11" t="n">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AI11" t="n">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="AJ11" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AK11" t="n">
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>75.75757575757601</v>
+        <v>71.428571428571</v>
       </c>
       <c r="AM11" t="n">
         <v>2</v>
@@ -4348,22 +4348,22 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
         <v>1</v>
@@ -4375,37 +4375,37 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>62.5</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BB11" t="n">
-        <v>52.631578947368</v>
+        <v>55.952380952381</v>
       </c>
       <c r="BC11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BD11" t="n">
-        <v>51.724137931034</v>
+        <v>54.6875</v>
       </c>
       <c r="BE11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF11" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="BG11" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="BH11" t="n">
         <v>12</v>
       </c>
       <c r="BI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4423,28 +4423,28 @@
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>88.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="BR11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS11" t="n">
         <v>6</v>
       </c>
       <c r="BT11" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="BZ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CA11" t="n">
         <v>6</v>
@@ -4465,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="CC11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CD11" t="n">
         <v>19</v>
@@ -4486,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -4513,13 +4513,13 @@
         <v>9</v>
       </c>
       <c r="CS11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT11" t="n">
         <v>2</v>
       </c>
       <c r="CU11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CV11" t="n">
         <v>8</v>
@@ -4534,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DA11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DB11" t="n">
-        <v>55.555555555556</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,16 +4552,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="DG11" t="n">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ11" t="n">
         <v>2161583</v>
@@ -5305,16 +5305,16 @@
         <v>917087</v>
       </c>
       <c r="E14" t="n">
-        <v>7.03125</v>
+        <v>7.0235294117647</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>919</v>
+        <v>949</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5323,22 +5323,22 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.6856</v>
+        <v>1.7211</v>
       </c>
       <c r="L14" t="n">
-        <v>459.5</v>
+        <v>474.5</v>
       </c>
       <c r="M14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6.8965517241379</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5371,34 +5371,34 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.06978156</v>
+        <v>3.31289956</v>
       </c>
       <c r="AB14" t="n">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="n">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="AF14" t="n">
-        <v>91.68000000000001</v>
+        <v>91.757387247278</v>
       </c>
       <c r="AG14" t="n">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="AH14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI14" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AJ14" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AK14" t="n">
         <v>38</v>
@@ -5407,16 +5407,16 @@
         <v>67.857142857143</v>
       </c>
       <c r="AM14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
-        <v>41.509433962264</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
         <v>7</v>
@@ -5443,22 +5443,22 @@
         <v>1</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>48</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BA14" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="BC14" t="n">
         <v>38</v>
       </c>
-      <c r="BB14" t="n">
-        <v>45.78313253012</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>34</v>
-      </c>
       <c r="BD14" t="n">
-        <v>45.945945945946</v>
+        <v>46.913580246914</v>
       </c>
       <c r="BE14" t="n">
         <v>4</v>
@@ -5467,14 +5467,14 @@
         <v>44.444444444444</v>
       </c>
       <c r="BG14" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="BH14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI14" t="n">
         <v>13</v>
       </c>
-      <c r="BI14" t="n">
-        <v>12</v>
-      </c>
       <c r="BJ14" t="n">
         <v>2</v>
       </c>
@@ -5491,22 +5491,22 @@
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>112.5</v>
+        <v>119.4</v>
       </c>
       <c r="BR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS14" t="n">
         <v>4</v>
       </c>
       <c r="BT14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5527,10 +5527,10 @@
         <v>14</v>
       </c>
       <c r="CA14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CB14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC14" t="n">
         <v>47</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5578,16 +5578,16 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CS14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CT14" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CU14" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CV14" t="n">
         <v>5</v>
@@ -5605,10 +5605,10 @@
         <v>56</v>
       </c>
       <c r="DA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB14" t="n">
-        <v>36.363636363636</v>
+        <v>41.666666666667</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DG14" t="n">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>1142672</v>
       </c>
       <c r="E15" t="n">
-        <v>6.9142857142857</v>
+        <v>6.9045454545455</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1686</v>
+        <v>1776</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5679,13 +5679,13 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5175</v>
+        <v>0.6606</v>
       </c>
       <c r="L15" t="n">
-        <v>1686</v>
+        <v>1776</v>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>8.3333333333333</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5727,58 +5727,58 @@
         <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.0818314</v>
+        <v>2.1675888</v>
       </c>
       <c r="AB15" t="n">
-        <v>1683</v>
+        <v>1747</v>
       </c>
       <c r="AC15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE15" t="n">
-        <v>1292</v>
+        <v>1338</v>
       </c>
       <c r="AF15" t="n">
-        <v>93.285198555957</v>
+        <v>93.305439330544</v>
       </c>
       <c r="AG15" t="n">
-        <v>1385</v>
+        <v>1434</v>
       </c>
       <c r="AH15" t="n">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="AI15" t="n">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="AJ15" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>60.975609756098</v>
       </c>
       <c r="AM15" t="n">
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.666666666667</v>
+        <v>15.384615384615</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
         <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
         <v>15</v>
@@ -5787,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -5799,31 +5799,31 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>60</v>
+        <v>61.111111111111</v>
       </c>
       <c r="BA15" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.435897435897</v>
+        <v>48.148148148148</v>
       </c>
       <c r="BC15" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BD15" t="n">
-        <v>46.099290780142</v>
+        <v>46.206896551724</v>
       </c>
       <c r="BE15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF15" t="n">
-        <v>60</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BG15" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="BH15" t="n">
         <v>26</v>
@@ -5847,28 +5847,28 @@
         <v>6</v>
       </c>
       <c r="BO15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>145.2</v>
+        <v>151.9</v>
       </c>
       <c r="BR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS15" t="n">
         <v>4</v>
       </c>
       <c r="BT15" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5880,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CC15" t="n">
         <v>34</v>
@@ -5910,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CS15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU15" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CV15" t="n">
         <v>6</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DA15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DB15" t="n">
-        <v>60.606060606061</v>
+        <v>61.764705882353</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="DG15" t="n">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>814594</v>
       </c>
       <c r="E16" t="n">
-        <v>6.66</v>
+        <v>6.6363636363636</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6038,7 +6038,7 @@
         <v>1.5517</v>
       </c>
       <c r="L16" t="n">
-        <v>364.5</v>
+        <v>409.5</v>
       </c>
       <c r="M16" t="n">
         <v>14</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9972637</v>
+        <v>1.0703449</v>
       </c>
       <c r="AB16" t="n">
-        <v>884</v>
+        <v>976</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
@@ -6095,52 +6095,52 @@
         <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>643</v>
+        <v>704</v>
       </c>
       <c r="AF16" t="n">
-        <v>91.988555078684</v>
+        <v>91.547464239272</v>
       </c>
       <c r="AG16" t="n">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="AH16" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AI16" t="n">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="AJ16" t="n">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>57.894736842105</v>
+        <v>60.869565217391</v>
       </c>
       <c r="AM16" t="n">
         <v>5</v>
       </c>
       <c r="AN16" t="n">
-        <v>20.833333333333</v>
+        <v>18.518518518519</v>
       </c>
       <c r="AO16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AS16" t="n">
         <v>6</v>
       </c>
       <c r="AT16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
         <v>5</v>
@@ -6161,31 +6161,31 @@
         <v>16.666666666667</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>35.820895522388</v>
+        <v>38.028169014085</v>
       </c>
       <c r="BC16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD16" t="n">
-        <v>36.923076923077</v>
+        <v>38.235294117647</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG16" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="BH16" t="n">
         <v>7</v>
       </c>
       <c r="BI16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ16" t="n">
         <v>2</v>
@@ -6203,22 +6203,22 @@
         <v>4</v>
       </c>
       <c r="BO16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>66.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="BR16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BU16" t="n">
         <v>1</v>
@@ -6242,13 +6242,13 @@
         <v>8</v>
       </c>
       <c r="CB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CD16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>24</v>
       </c>
       <c r="CT16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CU16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CV16" t="n">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="DA16" t="n">
         <v>8</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="DG16" t="n">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,16 +6373,16 @@
         <v>989768</v>
       </c>
       <c r="E17" t="n">
-        <v>7.3307692307692</v>
+        <v>7.2928571428571</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>926</v>
+        <v>1016</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -6391,13 +6391,13 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6173</v>
+        <v>2.7342</v>
       </c>
       <c r="L17" t="n">
-        <v>308.66666666667</v>
+        <v>338.66666666667</v>
       </c>
       <c r="M17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -6406,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>13.04347826087</v>
+        <v>12.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6439,67 +6439,67 @@
         <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.58208153</v>
+        <v>3.18058753</v>
       </c>
       <c r="AB17" t="n">
-        <v>1026</v>
+        <v>1122</v>
       </c>
       <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>713</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>89.798488664987</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>794</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>294</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>228</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>64.51612903225799</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>7</v>
       </c>
-      <c r="AD17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>657</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>730</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>266</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>391</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>212</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65.454545454545</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>35.135135135135</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
+        <v>72</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT17" t="n">
         <v>11</v>
       </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>10</v>
-      </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -6511,34 +6511,34 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>52.5</v>
+        <v>51.162790697674</v>
       </c>
       <c r="BA17" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="BB17" t="n">
-        <v>54.807692307692</v>
+        <v>55.084745762712</v>
       </c>
       <c r="BC17" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="BD17" t="n">
-        <v>55.208333333333</v>
+        <v>55.963302752294</v>
       </c>
       <c r="BE17" t="n">
         <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>50</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG17" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="BH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI17" t="n">
         <v>17</v>
@@ -6559,22 +6559,22 @@
         <v>5</v>
       </c>
       <c r="BO17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>95.3</v>
+        <v>102.1</v>
       </c>
       <c r="BR17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS17" t="n">
         <v>6</v>
       </c>
       <c r="BT17" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6592,19 +6592,19 @@
         <v>4</v>
       </c>
       <c r="BZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA17" t="n">
         <v>12</v>
       </c>
       <c r="CB17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CD17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6646,19 +6646,19 @@
         <v>25</v>
       </c>
       <c r="CR17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CS17" t="n">
+        <v>43</v>
+      </c>
+      <c r="CT17" t="n">
         <v>40</v>
       </c>
-      <c r="CT17" t="n">
-        <v>37</v>
-      </c>
       <c r="CU17" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="CV17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="DA17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="DB17" t="n">
-        <v>73.333333333333</v>
+        <v>72.727272727273</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="DG17" t="n">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7085,106 +7085,106 @@
         <v>979480</v>
       </c>
       <c r="E19" t="n">
-        <v>6.98</v>
+        <v>6.95625</v>
       </c>
       <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1285</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.36127875</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1248</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1026</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>94.649446494465</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>751</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>275</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK19" t="n">
         <v>15</v>
       </c>
-      <c r="G19" t="n">
-        <v>13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1195</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.6297</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.35624941</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1168</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>960</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>94.581280788177</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1015</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>266</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>14</v>
-      </c>
       <c r="AL19" t="n">
-        <v>41.176470588235</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7196,22 +7196,22 @@
         <v>18</v>
       </c>
       <c r="AP19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AS19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AU19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -7229,25 +7229,25 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BB19" t="n">
-        <v>64.197530864198</v>
+        <v>64.367816091954</v>
       </c>
       <c r="BC19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD19" t="n">
-        <v>71.73913043478299</v>
+        <v>70.833333333333</v>
       </c>
       <c r="BE19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF19" t="n">
-        <v>54.285714285714</v>
+        <v>56.410256410256</v>
       </c>
       <c r="BG19" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BH19" t="n">
         <v>4</v>
@@ -7271,22 +7271,22 @@
         <v>5</v>
       </c>
       <c r="BO19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>104.7</v>
+        <v>111.3</v>
       </c>
       <c r="BR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA19" t="n">
         <v>1</v>
@@ -7313,7 +7313,7 @@
         <v>3</v>
       </c>
       <c r="CC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CD19" t="n">
         <v>9</v>
@@ -7334,82 +7334,82 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>31</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>17</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>36</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>67.741935483871</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>774</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>310</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>14</v>
+      </c>
+      <c r="DI19" t="n">
         <v>8</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>29</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>16</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>20</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>715</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>300</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>11</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>5</v>
       </c>
       <c r="DJ19" t="n">
         <v>2161610</v>
@@ -7797,16 +7797,16 @@
         <v>1023567</v>
       </c>
       <c r="E21" t="n">
-        <v>6.93125</v>
+        <v>6.8882352941176</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>1307</v>
+        <v>1397</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7818,7 +7818,7 @@
         <v>0.3028</v>
       </c>
       <c r="L21" t="n">
-        <v>1307</v>
+        <v>1397</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.29059758</v>
+        <v>0.30018817</v>
       </c>
       <c r="AB21" t="n">
-        <v>1325</v>
+        <v>1410</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7875,28 +7875,28 @@
         <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>1101</v>
+        <v>1172</v>
       </c>
       <c r="AF21" t="n">
-        <v>93.702127659574</v>
+        <v>93.610223642173</v>
       </c>
       <c r="AG21" t="n">
-        <v>1175</v>
+        <v>1252</v>
       </c>
       <c r="AH21" t="n">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="AI21" t="n">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>51.923076923077</v>
+        <v>54.237288135593</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7908,25 +7908,25 @@
         <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AS21" t="n">
         <v>4</v>
       </c>
       <c r="AT21" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -7941,28 +7941,28 @@
         <v>75</v>
       </c>
       <c r="BA21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB21" t="n">
-        <v>48.684210526316</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
-        <v>56.09756097561</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BE21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF21" t="n">
-        <v>40</v>
+        <v>40.540540540541</v>
       </c>
       <c r="BG21" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="BH21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI21" t="n">
         <v>3</v>
@@ -7983,22 +7983,22 @@
         <v>7</v>
       </c>
       <c r="BO21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>110.9</v>
+        <v>117.1</v>
       </c>
       <c r="BR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8025,10 +8025,10 @@
         <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CD21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8079,10 +8079,10 @@
         <v>1</v>
       </c>
       <c r="CU21" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="DA21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DB21" t="n">
-        <v>70.58823529411799</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="DG21" t="n">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="DH21" t="n">
         <v>6</v>
@@ -8865,16 +8865,16 @@
         <v>800749</v>
       </c>
       <c r="E24" t="n">
-        <v>7.15</v>
+        <v>6.98</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,40 +8929,40 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00307073</v>
+        <v>0.00338899</v>
       </c>
       <c r="AB24" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="n">
-        <v>82.882882882883</v>
+        <v>84.848484848485</v>
       </c>
       <c r="AG24" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="AH24" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AI24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>48.571428571429</v>
+        <v>51.282051282051</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -9025,47 +9025,47 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
+        <v>21</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
         <v>20</v>
       </c>
-      <c r="BH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>11</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>19</v>
-      </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9106,25 +9106,25 @@
         <v>1</v>
       </c>
       <c r="CH24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI24" t="n">
         <v>6</v>
       </c>
       <c r="CJ24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
       </c>
       <c r="CM24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO24" t="n">
         <v>5</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS24" t="n">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>1</v>
       </c>
       <c r="DF24" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="DG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DH24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>0.0979</v>
+        <v>-0.4358</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Ligue_1/Paris Saint-Germain_stats.xlsx
+++ b/sofaplayer/Ligue_1/Paris Saint-Germain_stats.xlsx
@@ -1047,7 +1047,7 @@
         <v>688</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
